--- a/quiz-app/static/data/registrations.xlsx
+++ b/quiz-app/static/data/registrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,294 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:53:20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>jcvfjf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vb</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>vvv</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>vcc</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:11:12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:27:43</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>kfx nkjd</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1422</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>vvvfvfvf</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ai.ds</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:29:32</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>kfx nkjd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1422</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>vvvfvfvf</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ai.ds</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:42:06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>jdfjd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>xffg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ai.ds</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:44:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>afdskjj</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ads</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:45:42</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>iniya</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>srm</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ai.ds</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:52:12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2287984</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-08-11 15:53:47</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>fa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>arsf</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>sfg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
